--- a/時間帯別稼働推移-結果.xlsx
+++ b/時間帯別稼働推移-結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1400" yWindow="3240" windowWidth="29560" windowHeight="17500" tabRatio="842" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="時間帯別稼働推移元データ" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'時間帯別稼働推移元データ'!$A$1:$G$551</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -58,12 +58,6 @@
       <family val="1"/>
       <color theme="1"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
     </font>
   </fonts>
   <fills count="4">
@@ -142,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,13 +170,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -591,7 +579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="12"/>
@@ -602,7 +590,8 @@
     <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
     <col width="14" customWidth="1" style="7" min="5" max="6"/>
     <col width="11.83203125" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="8.25" customWidth="1" style="5" min="8" max="16384"/>
+    <col width="8.25" customWidth="1" style="5" min="8" max="10"/>
+    <col width="8.25" customWidth="1" style="5" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="3" thickBot="1">
@@ -18805,147 +18794,144 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
-  <cols>
-    <col width="11.75" customWidth="1" style="14" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>対象手術室</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>手術室</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>ウェイト</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>01A</t>
         </is>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>01B</t>
         </is>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>除外する曜日</t>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>除外曜日</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>土曜日</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>日曜日</t>
         </is>
@@ -18954,117 +18940,21 @@
     <row r="17"/>
     <row r="18"/>
     <row r="19">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>対象手術</t>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>曜日集計（土曜日）</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>全手術</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>定時</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>臨時</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
-        <is>
-          <t>緊急</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="inlineStr">
-        <is>
-          <t>予定手術のみ</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>定時</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>時間帯</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>部屋数カウント方法</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>8:00-20:00の8:00から30分おき時点のスナップショット時で計数する</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>スナップショット時に手術室が使用されていたらカウント１、但し01A, 01Bはカウント0.5で計算する</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>全手術でカウントする場合</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="inlineStr">
-        <is>
-          <t>予定手術のみ（臨時と緊急は除く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>を計算し、それぞれ、"計算結果"シートの、B2:Z3までに値を入れる</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="inlineStr">
-        <is>
-          <t>入れ終わったら、このファイルを"時間帯別稼働推移-結果.xlsx"として別名保存する</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="inlineStr">
-        <is>
-          <t>計数を行うのは、pythonのopenpyxlを使用する</t>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>土曜日の稼働を計算</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19074,16 +18964,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="23.58203125" customWidth="1" style="14" min="1" max="1"/>
-    <col width="9" customWidth="1" style="14" min="2" max="2"/>
+    <col width="23.58203125" customWidth="1" style="12" min="1" max="1"/>
+    <col width="9" customWidth="1" style="12" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19092,79 +18982,79 @@
           <t>集計結果</t>
         </is>
       </c>
-      <c r="B1" s="15" t="n">
+      <c r="B1" s="13" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C1" s="12" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="D1" s="15" t="n">
+      <c r="D1" s="13" t="n">
         <v>0.375</v>
       </c>
-      <c r="E1" s="12" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="F1" s="15" t="n">
+      <c r="F1" s="13" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.4375</v>
       </c>
-      <c r="H1" s="15" t="n">
+      <c r="H1" s="13" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="I1" s="12" t="n">
+      <c r="I1" s="11" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="J1" s="15" t="n">
+      <c r="J1" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="K1" s="12" t="n">
+      <c r="K1" s="11" t="n">
         <v>0.5208333333333334</v>
       </c>
-      <c r="L1" s="15" t="n">
+      <c r="L1" s="13" t="n">
         <v>0.5416666666666666</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="M1" s="11" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N1" s="15" t="n">
+      <c r="N1" s="13" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="O1" s="12" t="n">
+      <c r="O1" s="11" t="n">
         <v>0.6041666666666666</v>
       </c>
-      <c r="P1" s="15" t="n">
+      <c r="P1" s="13" t="n">
         <v>0.625</v>
       </c>
-      <c r="Q1" s="12" t="n">
+      <c r="Q1" s="11" t="n">
         <v>0.6458333333333334</v>
       </c>
-      <c r="R1" s="15" t="n">
+      <c r="R1" s="13" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="S1" s="12" t="n">
+      <c r="S1" s="11" t="n">
         <v>0.6875</v>
       </c>
-      <c r="T1" s="15" t="n">
+      <c r="T1" s="13" t="n">
         <v>0.7083333333333334</v>
       </c>
-      <c r="U1" s="12" t="n">
+      <c r="U1" s="11" t="n">
         <v>0.7291666666666666</v>
       </c>
-      <c r="V1" s="15" t="n">
+      <c r="V1" s="13" t="n">
         <v>0.75</v>
       </c>
-      <c r="W1" s="12" t="n">
+      <c r="W1" s="11" t="n">
         <v>0.7708333333333334</v>
       </c>
-      <c r="X1" s="15" t="n">
+      <c r="X1" s="13" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="Y1" s="12" t="n">
+      <c r="Y1" s="11" t="n">
         <v>0.8125</v>
       </c>
-      <c r="Z1" s="15" t="n">
+      <c r="Z1" s="13" t="n">
         <v>0.8333333333333334</v>
       </c>
     </row>
@@ -19178,76 +19068,76 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>0.05</v>
+        <v>1.23</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>2.88</v>
+        <v>6.55</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>6.38</v>
+        <v>6.78</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>6.25</v>
+        <v>7.08</v>
       </c>
       <c r="G2" s="9" t="n">
-        <v>5.72</v>
+        <v>7</v>
       </c>
       <c r="H2" s="9" t="n">
-        <v>5.95</v>
+        <v>6.88</v>
       </c>
       <c r="I2" s="9" t="n">
-        <v>5.78</v>
+        <v>6.92</v>
       </c>
       <c r="J2" s="9" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="K2" s="9" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="T2" s="9" t="n">
         <v>5.15</v>
       </c>
-      <c r="L2" s="9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="N2" s="9" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O2" s="9" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="Q2" s="9" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="R2" s="9" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="S2" s="9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>4.08</v>
-      </c>
       <c r="U2" s="9" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="W2" s="9" t="n">
-        <v>1.7</v>
+        <v>2.17</v>
       </c>
       <c r="X2" s="9" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="9" t="n">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="9" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -19260,75 +19150,1593 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z3" s="9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>月曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F3" s="9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G3" s="9" t="n">
+      <c r="C7" s="9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S7" s="9" t="n">
         <v>5.12</v>
       </c>
-      <c r="H3" s="9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I3" s="9" t="n">
+      <c r="T7" s="9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z7" s="9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z8" s="9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>火曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N11" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Q12" s="9" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="S12" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="T12" s="9" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U12" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" s="9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W12" s="9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X12" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y12" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z12" s="9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="S13" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T13" s="9" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U13" s="9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V13" s="9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W13" s="9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X13" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y13" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z13" s="9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>水曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L16" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M16" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N16" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O16" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q16" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S16" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T16" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U16" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W16" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y16" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="Q17" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="R17" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S17" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T17" s="9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U17" s="9" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="V17" s="9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" s="9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y17" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z17" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Q18" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" s="9" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="T18" s="9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z18" s="9" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>木曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L21" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M21" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N21" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O21" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P21" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q21" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S21" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U21" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W21" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y21" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z21" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q22" s="9" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="R22" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S22" s="9" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="T22" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U22" s="9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="V22" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X22" s="9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y22" s="9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z22" s="9" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L23" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Q23" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="R23" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S23" s="9" t="n">
         <v>5.12</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="T23" s="9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U23" s="9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V23" s="9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W23" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>金曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L26" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M26" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N26" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O26" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P26" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q26" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R26" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S26" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T26" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U26" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V26" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W26" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X26" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y26" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z26" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="N27" s="9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="O27" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="P27" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q27" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R27" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S27" s="9" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="T27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" s="9" t="n">
         <v>4.5</v>
       </c>
-      <c r="K3" s="9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L3" s="9" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="N3" s="9" t="n">
+      <c r="V27" s="9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W27" s="9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X27" s="9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K28" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="O3" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="R3" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S3" s="9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" s="9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="V3" s="9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W3" s="9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X3" s="9" t="n">
+      <c r="L28" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N28" s="9" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="O28" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q28" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R28" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="S28" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="T28" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U28" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V28" s="9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W28" s="9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X28" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y3" s="9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Y28" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z28" s="9" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>土曜日</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>集計結果</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H31" s="13" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I31" s="11" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="J31" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L31" s="13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M31" s="11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="N31" s="13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="O31" s="11" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="P31" s="13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q31" s="11" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="R31" s="13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S31" s="11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T31" s="13" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="U31" s="11" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="V31" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W31" s="11" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="X31" s="13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="Y31" s="11" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="Z31" s="13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>全手術（緊急含む）</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>予定手術のみ</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/時間帯別稼働推移-結果.xlsx
+++ b/時間帯別稼働推移-結果.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="380" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="時間帯別稼働推移元データ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="定義" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="計算結果" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="任意グラフ" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'時間帯別稼働推移元データ'!$A$1:$G$551</definedName>
@@ -252,6 +253,599 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <line3DChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>計算結果!$A$7</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>全手術（緊急含む）</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>計算結果!$B$6:$Z$6</f>
+              <numCache>
+                <formatCode>h:mm</formatCode>
+                <ptCount val="25"/>
+                <pt idx="0">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.3333333333333333</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3541666666666667</v>
+                </pt>
+                <pt idx="2">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.375</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3958333333333333</v>
+                </pt>
+                <pt idx="4">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.4166666666666667</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.4375</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.4583333333333333</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4791666666666667</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.5208333333333334</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5416666666666666</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.5625</v>
+                </pt>
+                <pt idx="12">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5833333333333334</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.6041666666666666</v>
+                </pt>
+                <pt idx="14">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.625</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.6458333333333334</v>
+                </pt>
+                <pt idx="16">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.6666666666666666</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.6875</v>
+                </pt>
+                <pt idx="18">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.7083333333333334</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.7291666666666666</v>
+                </pt>
+                <pt idx="20">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.75</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.7708333333333334</v>
+                </pt>
+                <pt idx="22">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.7916666666666666</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.8125</v>
+                </pt>
+                <pt idx="24">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.8333333333333334</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>計算結果!$B$7:$Z$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="25"/>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>計算結果!$A$8</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>予定手術のみ</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>計算結果!$B$6:$Z$6</f>
+              <numCache>
+                <formatCode>h:mm</formatCode>
+                <ptCount val="25"/>
+                <pt idx="0">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.3333333333333333</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.3541666666666667</v>
+                </pt>
+                <pt idx="2">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.375</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3958333333333333</v>
+                </pt>
+                <pt idx="4">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.4166666666666667</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.4375</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.4583333333333333</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.4791666666666667</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.5208333333333334</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5416666666666666</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.5625</v>
+                </pt>
+                <pt idx="12">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.5833333333333334</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.6041666666666666</v>
+                </pt>
+                <pt idx="14">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.625</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.6458333333333334</v>
+                </pt>
+                <pt idx="16">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.6666666666666666</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.6875</v>
+                </pt>
+                <pt idx="18">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.7083333333333334</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.7291666666666666</v>
+                </pt>
+                <pt idx="20">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.75</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.7708333333333334</v>
+                </pt>
+                <pt idx="22">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.7916666666666666</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.8125</v>
+                </pt>
+                <pt idx="24">
+                  <formatCode>[h]:mm</formatCode>
+                  <v>0.8333333333333334</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>計算結果!$B$8:$Z$8</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="25"/>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="1961142192"/>
+        <axId val="1961143152"/>
+        <axId val="239875408"/>
+      </line3DChart>
+      <catAx>
+        <axId val="1961142192"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="[h]:mm" sourceLinked="1"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1961143152"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1961143152"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1961142192"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+      <serAx>
+        <axId val="239875408"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1961143152"/>
+        <crosses val="autoZero"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>609600</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18796,7 +19390,7 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -18967,7 +19561,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A6" sqref="A6:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -20743,4 +21337,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/時間帯別稼働推移-結果.xlsx
+++ b/時間帯別稼働推移-結果.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="時間帯別稼働推移元データ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="定義" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="計算結果" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="任意グラフ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="検証_定時臨時緊急別" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'時間帯別稼働推移元データ'!$A$1:$G$551</definedName>
@@ -20,10 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -60,8 +61,23 @@
       <color theme="1"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Meiryo UI"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Meiryo UI"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Meiryo UI"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -80,8 +96,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002980B9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,6 +149,12 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -137,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +205,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -253,599 +288,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </txPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <line3DChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>計算結果!$A$7</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>全手術（緊急含む）</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>計算結果!$B$6:$Z$6</f>
-              <numCache>
-                <formatCode>h:mm</formatCode>
-                <ptCount val="25"/>
-                <pt idx="0">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.3333333333333333</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.3541666666666667</v>
-                </pt>
-                <pt idx="2">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.375</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.3958333333333333</v>
-                </pt>
-                <pt idx="4">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.4166666666666667</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.4375</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.4583333333333333</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4791666666666667</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5208333333333334</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5416666666666666</v>
-                </pt>
-                <pt idx="11">
-                  <v>0.5625</v>
-                </pt>
-                <pt idx="12">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5833333333333334</v>
-                </pt>
-                <pt idx="13">
-                  <v>0.6041666666666666</v>
-                </pt>
-                <pt idx="14">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.625</v>
-                </pt>
-                <pt idx="15">
-                  <v>0.6458333333333334</v>
-                </pt>
-                <pt idx="16">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.6666666666666666</v>
-                </pt>
-                <pt idx="17">
-                  <v>0.6875</v>
-                </pt>
-                <pt idx="18">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.7083333333333334</v>
-                </pt>
-                <pt idx="19">
-                  <v>0.7291666666666666</v>
-                </pt>
-                <pt idx="20">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.75</v>
-                </pt>
-                <pt idx="21">
-                  <v>0.7708333333333334</v>
-                </pt>
-                <pt idx="22">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.7916666666666666</v>
-                </pt>
-                <pt idx="23">
-                  <v>0.8125</v>
-                </pt>
-                <pt idx="24">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.8333333333333334</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>計算結果!$B$7:$Z$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="25"/>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>計算結果!$A$8</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>予定手術のみ</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>計算結果!$B$6:$Z$6</f>
-              <numCache>
-                <formatCode>h:mm</formatCode>
-                <ptCount val="25"/>
-                <pt idx="0">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.3333333333333333</v>
-                </pt>
-                <pt idx="1">
-                  <v>0.3541666666666667</v>
-                </pt>
-                <pt idx="2">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.375</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.3958333333333333</v>
-                </pt>
-                <pt idx="4">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.4166666666666667</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.4375</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.4583333333333333</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.4791666666666667</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5</v>
-                </pt>
-                <pt idx="9">
-                  <v>0.5208333333333334</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5416666666666666</v>
-                </pt>
-                <pt idx="11">
-                  <v>0.5625</v>
-                </pt>
-                <pt idx="12">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.5833333333333334</v>
-                </pt>
-                <pt idx="13">
-                  <v>0.6041666666666666</v>
-                </pt>
-                <pt idx="14">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.625</v>
-                </pt>
-                <pt idx="15">
-                  <v>0.6458333333333334</v>
-                </pt>
-                <pt idx="16">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.6666666666666666</v>
-                </pt>
-                <pt idx="17">
-                  <v>0.6875</v>
-                </pt>
-                <pt idx="18">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.7083333333333334</v>
-                </pt>
-                <pt idx="19">
-                  <v>0.7291666666666666</v>
-                </pt>
-                <pt idx="20">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.75</v>
-                </pt>
-                <pt idx="21">
-                  <v>0.7708333333333334</v>
-                </pt>
-                <pt idx="22">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.7916666666666666</v>
-                </pt>
-                <pt idx="23">
-                  <v>0.8125</v>
-                </pt>
-                <pt idx="24">
-                  <formatCode>[h]:mm</formatCode>
-                  <v>0.8333333333333334</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>計算結果!$B$8:$Z$8</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="25"/>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <axId val="1961142192"/>
-        <axId val="1961143152"/>
-        <axId val="239875408"/>
-      </line3DChart>
-      <catAx>
-        <axId val="1961142192"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="[h]:mm" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1961143152"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="1961143152"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1961142192"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <serAx>
-        <axId val="239875408"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1961143152"/>
-        <crosses val="autoZero"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>10</col>
-      <colOff>609600</colOff>
-      <row>32</row>
-      <rowOff>0</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19560,8 +19002,8 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -21345,15 +20787,7194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" style="12" min="1" max="1"/>
+    <col width="12" customWidth="1" style="12" min="2" max="2"/>
+    <col width="12" customWidth="1" style="12" min="3" max="3"/>
+    <col width="12" customWidth="1" style="12" min="4" max="4"/>
+    <col width="12" customWidth="1" style="12" min="5" max="5"/>
+    <col width="12" customWidth="1" style="12" min="6" max="6"/>
+    <col width="12" customWidth="1" style="12" min="7" max="7"/>
+    <col width="12" customWidth="1" style="12" min="8" max="8"/>
+    <col width="12" customWidth="1" style="12" min="9" max="9"/>
+    <col width="12" customWidth="1" style="12" min="10" max="10"/>
+    <col width="12" customWidth="1" style="12" min="11" max="11"/>
+    <col width="12" customWidth="1" style="12" min="12" max="12"/>
+    <col width="12" customWidth="1" style="12" min="13" max="13"/>
+    <col width="12" customWidth="1" style="12" min="14" max="14"/>
+    <col width="12" customWidth="1" style="12" min="15" max="15"/>
+    <col width="12" customWidth="1" style="12" min="16" max="16"/>
+    <col width="12" customWidth="1" style="12" min="17" max="17"/>
+    <col width="12" customWidth="1" style="12" min="18" max="18"/>
+    <col width="12" customWidth="1" style="12" min="19" max="19"/>
+    <col width="12" customWidth="1" style="12" min="20" max="20"/>
+    <col width="12" customWidth="1" style="12" min="21" max="21"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>【定時のみ】</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>時間帯</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/01</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/02</t>
+        </is>
+      </c>
+      <c r="D2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/03</t>
+        </is>
+      </c>
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/04</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/05</t>
+        </is>
+      </c>
+      <c r="G2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="H2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/09</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/10</t>
+        </is>
+      </c>
+      <c r="J2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/11</t>
+        </is>
+      </c>
+      <c r="K2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/12</t>
+        </is>
+      </c>
+      <c r="L2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/16</t>
+        </is>
+      </c>
+      <c r="M2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/17</t>
+        </is>
+      </c>
+      <c r="N2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="O2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/19</t>
+        </is>
+      </c>
+      <c r="P2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="Q2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="R2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/25</t>
+        </is>
+      </c>
+      <c r="S2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/26</t>
+        </is>
+      </c>
+      <c r="T2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/29</t>
+        </is>
+      </c>
+      <c r="U2" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U6" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B8" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O8" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S8" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U8" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U9" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B10" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U10" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U11" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S12" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U12" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N13" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R13" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S13" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T13" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M14" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R14" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S14" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S15" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N16" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P18" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R18" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" s="17" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" s="17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R20" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S20" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" s="17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M21" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B23" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="inlineStr">
+        <is>
+          <t>【臨時のみ】</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="15" t="inlineStr">
+        <is>
+          <t>時間帯</t>
+        </is>
+      </c>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/01</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/02</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/03</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/04</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/05</t>
+        </is>
+      </c>
+      <c r="G30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/09</t>
+        </is>
+      </c>
+      <c r="I30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/10</t>
+        </is>
+      </c>
+      <c r="J30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/11</t>
+        </is>
+      </c>
+      <c r="K30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/12</t>
+        </is>
+      </c>
+      <c r="L30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/16</t>
+        </is>
+      </c>
+      <c r="M30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/17</t>
+        </is>
+      </c>
+      <c r="N30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="O30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/19</t>
+        </is>
+      </c>
+      <c r="P30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="Q30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="R30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/25</t>
+        </is>
+      </c>
+      <c r="S30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/26</t>
+        </is>
+      </c>
+      <c r="T30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/29</t>
+        </is>
+      </c>
+      <c r="U30" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="B31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S41" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L42" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S42" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U42" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L43" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U43" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U44" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S45" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U45" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U46" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U47" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B48" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E48" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U48" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B49" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E49" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U49" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U50" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U51" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U52" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="inlineStr">
+        <is>
+          <t>【緊急のみ】</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="15" t="inlineStr">
+        <is>
+          <t>時間帯</t>
+        </is>
+      </c>
+      <c r="B58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/01</t>
+        </is>
+      </c>
+      <c r="C58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/02</t>
+        </is>
+      </c>
+      <c r="D58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/03</t>
+        </is>
+      </c>
+      <c r="E58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/04</t>
+        </is>
+      </c>
+      <c r="F58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/05</t>
+        </is>
+      </c>
+      <c r="G58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/09</t>
+        </is>
+      </c>
+      <c r="I58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/10</t>
+        </is>
+      </c>
+      <c r="J58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/11</t>
+        </is>
+      </c>
+      <c r="K58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/12</t>
+        </is>
+      </c>
+      <c r="L58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/16</t>
+        </is>
+      </c>
+      <c r="M58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/17</t>
+        </is>
+      </c>
+      <c r="N58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="O58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/19</t>
+        </is>
+      </c>
+      <c r="P58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="Q58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="R58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/25</t>
+        </is>
+      </c>
+      <c r="S58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/26</t>
+        </is>
+      </c>
+      <c r="T58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/29</t>
+        </is>
+      </c>
+      <c r="U58" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="B59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="16" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="16" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B71" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B72" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B73" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B74" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B75" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="16" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B80" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="16" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B82" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="14" t="inlineStr">
+        <is>
+          <t>【合計（検証用）】</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="15" t="inlineStr">
+        <is>
+          <t>時間帯</t>
+        </is>
+      </c>
+      <c r="B86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/01</t>
+        </is>
+      </c>
+      <c r="C86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/02</t>
+        </is>
+      </c>
+      <c r="D86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/03</t>
+        </is>
+      </c>
+      <c r="E86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/04</t>
+        </is>
+      </c>
+      <c r="F86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/05</t>
+        </is>
+      </c>
+      <c r="G86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/08</t>
+        </is>
+      </c>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/09</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/10</t>
+        </is>
+      </c>
+      <c r="J86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/11</t>
+        </is>
+      </c>
+      <c r="K86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/12</t>
+        </is>
+      </c>
+      <c r="L86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/16</t>
+        </is>
+      </c>
+      <c r="M86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/17</t>
+        </is>
+      </c>
+      <c r="N86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/18</t>
+        </is>
+      </c>
+      <c r="O86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/19</t>
+        </is>
+      </c>
+      <c r="P86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/22</t>
+        </is>
+      </c>
+      <c r="Q86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/24</t>
+        </is>
+      </c>
+      <c r="R86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/25</t>
+        </is>
+      </c>
+      <c r="S86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/26</t>
+        </is>
+      </c>
+      <c r="T86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/29</t>
+        </is>
+      </c>
+      <c r="U86" s="15" t="inlineStr">
+        <is>
+          <t>2025/09/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="B87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B88" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U88" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B89" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H89" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K89" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L89" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O89" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P89" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q89" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U89" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D90" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F90" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G90" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H90" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I90" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L90" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M90" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O90" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P90" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q90" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R90" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S90" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T90" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U90" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B91" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D91" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G91" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H91" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J91" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K91" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L91" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M91" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N91" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O91" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P91" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q91" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R91" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S91" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T91" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U91" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B92" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G92" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H92" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K92" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L92" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="M92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O92" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P92" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q92" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R92" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T92" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U92" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B93" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D93" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F93" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I93" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K93" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L93" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M93" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N93" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O93" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q93" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R93" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S93" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T93" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U93" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B94" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D94" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F94" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G94" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I94" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J94" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K94" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L94" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M94" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O94" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q94" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S94" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U94" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B95" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D95" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F95" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I95" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K95" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L95" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M95" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O95" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q95" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R95" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="S95" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U95" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C96" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F96" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L96" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O96" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P96" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R96" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S96" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U96" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B97" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D97" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E97" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G97" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H97" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I97" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J97" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K97" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L97" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="M97" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N97" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O97" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P97" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q97" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R97" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S97" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T97" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="U97" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="16" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F98" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I98" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L98" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="M98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O98" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R98" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U98" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C99" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E99" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H99" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I99" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L99" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N99" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O99" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P99" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q99" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R99" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S99" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T99" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U99" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C100" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D100" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F100" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G100" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J100" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K100" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L100" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M100" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P100" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R100" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S100" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T100" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U100" s="17" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C101" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D101" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G101" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I101" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K101" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M101" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O101" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="P101" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R101" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S101" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T101" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U101" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C102" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F102" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G102" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I102" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J102" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K102" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L102" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N102" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O102" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P102" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R102" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S102" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T102" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U102" s="17" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B103" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C103" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E103" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G103" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I103" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J103" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L103" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M103" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N103" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="P103" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R103" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S103" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T103" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U103" s="17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D104" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G104" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H104" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K104" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L104" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P104" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R104" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S104" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T104" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U104" s="17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B105" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D105" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E105" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F105" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G105" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K105" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L105" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M105" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N105" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O105" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P105" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R105" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="T105" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U105" s="17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="16" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B106" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D106" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" s="17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G106" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H106" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" s="17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M106" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N106" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O106" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P106" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" s="17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U106" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B107" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G107" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K107" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" s="17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M107" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N107" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P107" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R107" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U107" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="16" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M108" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U108" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="16" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B110" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S110" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/時間帯別稼働推移-結果.xlsx
+++ b/時間帯別稼働推移-結果.xlsx
@@ -19125,64 +19125,64 @@
         <v>6.55</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>6.78</v>
+        <v>6.62</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>7.08</v>
+        <v>6.83</v>
       </c>
       <c r="G2" s="9" t="n">
-        <v>7</v>
+        <v>6.72</v>
       </c>
       <c r="H2" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q2" s="9" t="n">
         <v>6.88</v>
       </c>
-      <c r="I2" s="9" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="J2" s="9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K2" s="9" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="L2" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="N2" s="9" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="O2" s="9" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="Q2" s="9" t="n">
-        <v>6.95</v>
-      </c>
       <c r="R2" s="9" t="n">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="S2" s="9" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="T2" s="9" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="U2" s="9" t="n">
         <v>3.95</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W2" s="9" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="X2" s="9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" s="9" t="n">
         <v>1.07</v>
@@ -19207,64 +19207,64 @@
         <v>6.05</v>
       </c>
       <c r="E3" s="9" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="M3" s="9" t="n">
         <v>6.28</v>
       </c>
-      <c r="F3" s="9" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="K3" s="9" t="n">
+      <c r="N3" s="9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Q3" s="9" t="n">
         <v>5.58</v>
       </c>
-      <c r="L3" s="9" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="N3" s="9" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="P3" s="9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>5.65</v>
-      </c>
       <c r="R3" s="9" t="n">
-        <v>5.08</v>
+        <v>4.95</v>
       </c>
       <c r="S3" s="9" t="n">
-        <v>4.62</v>
+        <v>4.53</v>
       </c>
       <c r="T3" s="9" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
       <c r="U3" s="9" t="n">
         <v>2.65</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W3" s="9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X3" s="9" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="Y3" s="9" t="n">
         <v>0.45</v>
@@ -19631,13 +19631,13 @@
         <v>7.25</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>7.62</v>
+        <v>7.25</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>7.88</v>
+        <v>7.25</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>7</v>
@@ -19646,34 +19646,34 @@
         <v>7</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>7.12</v>
+        <v>6.75</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>8.5</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M12" s="9" t="n">
-        <v>8</v>
+        <v>7.88</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O12" s="9" t="n">
-        <v>8.119999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="P12" s="9" t="n">
-        <v>8.119999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="Q12" s="9" t="n">
-        <v>7.88</v>
+        <v>7.75</v>
       </c>
       <c r="R12" s="9" t="n">
-        <v>7.62</v>
+        <v>7.38</v>
       </c>
       <c r="S12" s="9" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="T12" s="9" t="n">
         <v>4.88</v>
@@ -19713,13 +19713,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>7.38</v>
+        <v>7</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="G13" s="9" t="n">
-        <v>7.38</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>6.5</v>
@@ -19728,34 +19728,34 @@
         <v>6.5</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>6.38</v>
+        <v>6</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="L13" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="N13" s="9" t="n">
         <v>7.38</v>
       </c>
-      <c r="M13" s="9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="N13" s="9" t="n">
-        <v>7.88</v>
-      </c>
       <c r="O13" s="9" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="P13" s="9" t="n">
-        <v>7</v>
+        <v>6.62</v>
       </c>
       <c r="Q13" s="9" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="R13" s="9" t="n">
-        <v>6.12</v>
+        <v>5.88</v>
       </c>
       <c r="S13" s="9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="T13" s="9" t="n">
         <v>3.88</v>
@@ -19896,13 +19896,13 @@
         <v>6.5</v>
       </c>
       <c r="I17" s="9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>6</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L17" s="9" t="n">
         <v>7.38</v>
@@ -19911,19 +19911,19 @@
         <v>7.12</v>
       </c>
       <c r="N17" s="9" t="n">
-        <v>7.62</v>
+        <v>7.5</v>
       </c>
       <c r="O17" s="9" t="n">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="P17" s="9" t="n">
-        <v>7.88</v>
+        <v>7.5</v>
       </c>
       <c r="Q17" s="9" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="R17" s="9" t="n">
-        <v>6.5</v>
+        <v>6.38</v>
       </c>
       <c r="S17" s="9" t="n">
         <v>5.75</v>
@@ -19978,13 +19978,13 @@
         <v>5.75</v>
       </c>
       <c r="I18" s="9" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>5.25</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>5.75</v>
@@ -19996,16 +19996,16 @@
         <v>5.75</v>
       </c>
       <c r="O18" s="9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P18" s="9" t="n">
-        <v>5.62</v>
+        <v>5.25</v>
       </c>
       <c r="Q18" s="9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R18" s="9" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="S18" s="9" t="n">
         <v>3.38</v>
@@ -20137,37 +20137,37 @@
         <v>6.38</v>
       </c>
       <c r="E22" s="9" t="n">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G22" s="9" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="H22" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="I22" s="9" t="n">
         <v>7.5</v>
       </c>
-      <c r="I22" s="9" t="n">
-        <v>8</v>
-      </c>
       <c r="J22" s="9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="9" t="n">
         <v>6.88</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>8.119999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="M22" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="N22" s="9" t="n">
         <v>7.38</v>
       </c>
-      <c r="N22" s="9" t="n">
-        <v>8</v>
-      </c>
       <c r="O22" s="9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="P22" s="9" t="n">
         <v>7.5</v>
@@ -20176,25 +20176,25 @@
         <v>6.62</v>
       </c>
       <c r="R22" s="9" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="S22" s="9" t="n">
-        <v>6.62</v>
+        <v>6.38</v>
       </c>
       <c r="T22" s="9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="U22" s="9" t="n">
         <v>4.25</v>
       </c>
       <c r="V22" s="9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W22" s="9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="X22" s="9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="9" t="n">
         <v>1.12</v>
@@ -20219,37 +20219,37 @@
         <v>6.12</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>6.62</v>
+        <v>6.25</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G23" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I23" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="J23" s="9" t="n">
         <v>6.25</v>
-      </c>
-      <c r="I23" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>6.75</v>
       </c>
       <c r="K23" s="9" t="n">
         <v>5.88</v>
       </c>
       <c r="L23" s="9" t="n">
-        <v>7.25</v>
+        <v>6.38</v>
       </c>
       <c r="M23" s="9" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="N23" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="N23" s="9" t="n">
-        <v>6.88</v>
-      </c>
       <c r="O23" s="9" t="n">
-        <v>5.38</v>
+        <v>5.12</v>
       </c>
       <c r="P23" s="9" t="n">
         <v>5.62</v>
@@ -20258,25 +20258,25 @@
         <v>5.25</v>
       </c>
       <c r="R23" s="9" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="S23" s="9" t="n">
-        <v>5.12</v>
+        <v>4.88</v>
       </c>
       <c r="T23" s="9" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U23" s="9" t="n">
         <v>2.75</v>
       </c>
       <c r="V23" s="9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W23" s="9" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X23" s="9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y23" s="9" t="n">
         <v>0</v>
@@ -20420,10 +20420,10 @@
         <v>7.12</v>
       </c>
       <c r="O27" s="9" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="P27" s="9" t="n">
-        <v>6.75</v>
+        <v>6.62</v>
       </c>
       <c r="Q27" s="9" t="n">
         <v>6.75</v>
@@ -20502,10 +20502,10 @@
         <v>6.38</v>
       </c>
       <c r="O28" s="9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="P28" s="9" t="n">
-        <v>6.25</v>
+        <v>6.12</v>
       </c>
       <c r="Q28" s="9" t="n">
         <v>6.25</v>
@@ -21185,10 +21185,10 @@
         </is>
       </c>
       <c r="B6" s="18" t="n">
-        <v>125.5</v>
+        <v>122.5</v>
       </c>
       <c r="C6" s="19" t="n">
-        <v>6.28</v>
+        <v>6.12</v>
       </c>
       <c r="D6" s="20" t="n">
         <v>7</v>
@@ -21200,7 +21200,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" s="20" t="n">
         <v>5</v>
@@ -21209,25 +21209,25 @@
         <v>5.5</v>
       </c>
       <c r="J6" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K6" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L6" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" s="20" t="n">
         <v>5</v>
@@ -21258,22 +21258,22 @@
         </is>
       </c>
       <c r="B7" s="18" t="n">
-        <v>129.5</v>
+        <v>124.5</v>
       </c>
       <c r="C7" s="19" t="n">
-        <v>6.47</v>
+        <v>6.22</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H7" s="20" t="n">
         <v>6</v>
@@ -21282,7 +21282,7 @@
         <v>6.5</v>
       </c>
       <c r="J7" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K7" s="20" t="n">
         <v>5</v>
@@ -21300,7 +21300,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q7" s="20" t="n">
         <v>5</v>
@@ -21312,7 +21312,7 @@
         <v>6</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U7" s="20" t="n">
         <v>6</v>
@@ -21321,7 +21321,7 @@
         <v>5.5</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="B8" s="18" t="n">
-        <v>123</v>
+        <v>120.5</v>
       </c>
       <c r="C8" s="19" t="n">
-        <v>6.15</v>
+        <v>6.03</v>
       </c>
       <c r="D8" s="20" t="n">
         <v>7</v>
@@ -21346,7 +21346,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H8" s="20" t="n">
         <v>6</v>
@@ -21367,7 +21367,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O8" s="20" t="n">
         <v>6</v>
@@ -21404,10 +21404,10 @@
         </is>
       </c>
       <c r="B9" s="18" t="n">
-        <v>120.5</v>
+        <v>118.5</v>
       </c>
       <c r="C9" s="19" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="D9" s="20" t="n">
         <v>6</v>
@@ -21419,7 +21419,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H9" s="20" t="n">
         <v>6</v>
@@ -21446,7 +21446,7 @@
         <v>6</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q9" s="20" t="n">
         <v>5</v>
@@ -21477,10 +21477,10 @@
         </is>
       </c>
       <c r="B10" s="18" t="n">
-        <v>122.5</v>
+        <v>118.5</v>
       </c>
       <c r="C10" s="19" t="n">
-        <v>6.12</v>
+        <v>5.92</v>
       </c>
       <c r="D10" s="20" t="n">
         <v>7</v>
@@ -21492,7 +21492,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H10" s="20" t="n">
         <v>6</v>
@@ -21507,7 +21507,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M10" s="20" t="n">
         <v>6</v>
@@ -21516,7 +21516,7 @@
         <v>6.5</v>
       </c>
       <c r="O10" s="20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P10" s="20" t="n">
         <v>7.5</v>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="B11" s="18" t="n">
-        <v>117</v>
+        <v>113.5</v>
       </c>
       <c r="C11" s="19" t="n">
-        <v>5.85</v>
+        <v>5.67</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>6</v>
@@ -21580,13 +21580,13 @@
         <v>5</v>
       </c>
       <c r="L11" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O11" s="20" t="n">
         <v>5</v>
@@ -21604,7 +21604,7 @@
         <v>5</v>
       </c>
       <c r="T11" s="20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U11" s="20" t="n">
         <v>5</v>
@@ -21613,7 +21613,7 @@
         <v>4.5</v>
       </c>
       <c r="W11" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12">
@@ -21623,16 +21623,16 @@
         </is>
       </c>
       <c r="B12" s="18" t="n">
-        <v>111.5</v>
+        <v>108.5</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>5.58</v>
+        <v>5.42</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F12" s="20" t="n">
         <v>5</v>
@@ -21647,7 +21647,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="20" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K12" s="20" t="n">
         <v>4</v>
@@ -21662,7 +21662,7 @@
         <v>7.5</v>
       </c>
       <c r="O12" s="20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P12" s="20" t="n">
         <v>6</v>
@@ -21686,7 +21686,7 @@
         <v>5.5</v>
       </c>
       <c r="W12" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
@@ -21696,10 +21696,10 @@
         </is>
       </c>
       <c r="B13" s="18" t="n">
-        <v>130.5</v>
+        <v>126.5</v>
       </c>
       <c r="C13" s="19" t="n">
-        <v>6.53</v>
+        <v>6.33</v>
       </c>
       <c r="D13" s="20" t="n">
         <v>6</v>
@@ -21711,7 +21711,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H13" s="20" t="n">
         <v>5.5</v>
@@ -21726,7 +21726,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M13" s="20" t="n">
         <v>6.5</v>
@@ -21738,7 +21738,7 @@
         <v>6.5</v>
       </c>
       <c r="P13" s="20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="20" t="n">
         <v>6.5</v>
@@ -21759,7 +21759,7 @@
         <v>6</v>
       </c>
       <c r="W13" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14">
@@ -21769,10 +21769,10 @@
         </is>
       </c>
       <c r="B14" s="18" t="n">
-        <v>126.5</v>
+        <v>125.5</v>
       </c>
       <c r="C14" s="19" t="n">
-        <v>6.33</v>
+        <v>6.28</v>
       </c>
       <c r="D14" s="20" t="n">
         <v>6</v>
@@ -21793,13 +21793,13 @@
         <v>5</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K14" s="20" t="n">
         <v>3</v>
       </c>
       <c r="L14" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M14" s="20" t="n">
         <v>6</v>
@@ -21842,22 +21842,22 @@
         </is>
       </c>
       <c r="B15" s="18" t="n">
-        <v>129.5</v>
+        <v>126</v>
       </c>
       <c r="C15" s="19" t="n">
-        <v>6.47</v>
+        <v>6.3</v>
       </c>
       <c r="D15" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E15" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F15" s="20" t="n">
         <v>4.5</v>
       </c>
       <c r="G15" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H15" s="20" t="n">
         <v>6</v>
@@ -21866,7 +21866,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K15" s="20" t="n">
         <v>4.5</v>
@@ -21878,7 +21878,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O15" s="20" t="n">
         <v>6.5</v>
@@ -21896,7 +21896,7 @@
         <v>7.5</v>
       </c>
       <c r="T15" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U15" s="20" t="n">
         <v>7</v>
@@ -21915,25 +21915,25 @@
         </is>
       </c>
       <c r="B16" s="18" t="n">
-        <v>122.5</v>
+        <v>118.5</v>
       </c>
       <c r="C16" s="19" t="n">
-        <v>6.12</v>
+        <v>5.92</v>
       </c>
       <c r="D16" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E16" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F16" s="20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G16" s="20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H16" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I16" s="20" t="n">
         <v>5</v>
@@ -21954,7 +21954,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P16" s="20" t="n">
         <v>5.5</v>
@@ -21969,7 +21969,7 @@
         <v>6.5</v>
       </c>
       <c r="T16" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U16" s="20" t="n">
         <v>7</v>
@@ -21978,7 +21978,7 @@
         <v>6</v>
       </c>
       <c r="W16" s="20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -21988,25 +21988,25 @@
         </is>
       </c>
       <c r="B17" s="18" t="n">
-        <v>118</v>
+        <v>114.5</v>
       </c>
       <c r="C17" s="19" t="n">
-        <v>5.9</v>
+        <v>5.72</v>
       </c>
       <c r="D17" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E17" s="20" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G17" s="20" t="n">
         <v>5.5</v>
       </c>
       <c r="H17" s="20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I17" s="20" t="n">
         <v>5</v>
@@ -22015,7 +22015,7 @@
         <v>6.5</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L17" s="20" t="n">
         <v>6</v>
@@ -22027,7 +22027,7 @@
         <v>7</v>
       </c>
       <c r="O17" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P17" s="20" t="n">
         <v>5.5</v>
@@ -22061,10 +22061,10 @@
         </is>
       </c>
       <c r="B18" s="18" t="n">
-        <v>113</v>
+        <v>111.5</v>
       </c>
       <c r="C18" s="19" t="n">
-        <v>5.65</v>
+        <v>5.58</v>
       </c>
       <c r="D18" s="20" t="n">
         <v>6</v>
@@ -22112,7 +22112,7 @@
         <v>4</v>
       </c>
       <c r="S18" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="T18" s="20" t="n">
         <v>6</v>
@@ -22124,7 +22124,7 @@
         <v>5</v>
       </c>
       <c r="W18" s="20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -22134,10 +22134,10 @@
         </is>
       </c>
       <c r="B19" s="18" t="n">
-        <v>101.5</v>
+        <v>99</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>5.08</v>
+        <v>4.95</v>
       </c>
       <c r="D19" s="20" t="n">
         <v>6</v>
@@ -22176,7 +22176,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="20" t="n">
         <v>6</v>
@@ -22185,7 +22185,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T19" s="20" t="n">
         <v>5</v>
@@ -22197,7 +22197,7 @@
         <v>2</v>
       </c>
       <c r="W19" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -22207,10 +22207,10 @@
         </is>
       </c>
       <c r="B20" s="18" t="n">
-        <v>92.5</v>
+        <v>90.5</v>
       </c>
       <c r="C20" s="19" t="n">
-        <v>4.62</v>
+        <v>4.53</v>
       </c>
       <c r="D20" s="20" t="n">
         <v>6</v>
@@ -22261,7 +22261,7 @@
         <v>4.5</v>
       </c>
       <c r="T20" s="20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="U20" s="20" t="n">
         <v>6</v>
@@ -22270,7 +22270,7 @@
         <v>2</v>
       </c>
       <c r="W20" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -22280,10 +22280,10 @@
         </is>
       </c>
       <c r="B21" s="18" t="n">
-        <v>74.5</v>
+        <v>73.5</v>
       </c>
       <c r="C21" s="19" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
       <c r="D21" s="20" t="n">
         <v>3</v>
@@ -22322,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="20" t="n">
         <v>4.5</v>
@@ -22426,10 +22426,10 @@
         </is>
       </c>
       <c r="B23" s="18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="19" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="D23" s="20" t="n">
         <v>1</v>
@@ -22441,7 +22441,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="20" t="n">
         <v>2.5</v>
@@ -22499,10 +22499,10 @@
         </is>
       </c>
       <c r="B24" s="18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="19" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="D24" s="20" t="n">
         <v>1</v>
@@ -22514,7 +22514,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="20" t="n">
         <v>1.5</v>
@@ -22572,10 +22572,10 @@
         </is>
       </c>
       <c r="B25" s="18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="19" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D25" s="20" t="n">
         <v>1</v>
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="20" t="n">
         <v>0</v>
@@ -23280,10 +23280,10 @@
         </is>
       </c>
       <c r="B36" s="18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="19" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="D36" s="20" t="n">
         <v>1</v>
@@ -23295,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="20" t="n">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" s="20" t="n">
         <v>0</v>
@@ -23353,10 +23353,10 @@
         </is>
       </c>
       <c r="B37" s="18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="19" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D37" s="20" t="n">
         <v>1</v>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="20" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         </is>
       </c>
       <c r="B90" s="18" t="n">
-        <v>135.5</v>
+        <v>132.5</v>
       </c>
       <c r="C90" s="19" t="n">
-        <v>6.78</v>
+        <v>6.62</v>
       </c>
       <c r="D90" s="20" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         <v>6</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H90" s="20" t="n">
         <v>6</v>
@@ -27056,25 +27056,25 @@
         <v>6.5</v>
       </c>
       <c r="J90" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L90" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M90" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N90" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P90" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q90" s="20" t="n">
         <v>5</v>
@@ -27105,22 +27105,22 @@
         </is>
       </c>
       <c r="B91" s="18" t="n">
-        <v>141.5</v>
+        <v>136.5</v>
       </c>
       <c r="C91" s="19" t="n">
-        <v>7.08</v>
+        <v>6.83</v>
       </c>
       <c r="D91" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E91" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="F91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H91" s="20" t="n">
         <v>6</v>
@@ -27129,7 +27129,7 @@
         <v>7.5</v>
       </c>
       <c r="J91" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K91" s="20" t="n">
         <v>6</v>
@@ -27147,7 +27147,7 @@
         <v>6</v>
       </c>
       <c r="P91" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q91" s="20" t="n">
         <v>5</v>
@@ -27159,7 +27159,7 @@
         <v>7</v>
       </c>
       <c r="T91" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U91" s="20" t="n">
         <v>6</v>
@@ -27168,7 +27168,7 @@
         <v>6.5</v>
       </c>
       <c r="W91" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="92">
@@ -27178,10 +27178,10 @@
         </is>
       </c>
       <c r="B92" s="18" t="n">
-        <v>140</v>
+        <v>134.5</v>
       </c>
       <c r="C92" s="19" t="n">
-        <v>7</v>
+        <v>6.72</v>
       </c>
       <c r="D92" s="20" t="n">
         <v>8</v>
@@ -27193,7 +27193,7 @@
         <v>6</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="H92" s="20" t="n">
         <v>6</v>
@@ -27202,7 +27202,7 @@
         <v>7.5</v>
       </c>
       <c r="J92" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K92" s="20" t="n">
         <v>6</v>
@@ -27214,7 +27214,7 @@
         <v>7</v>
       </c>
       <c r="N92" s="20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O92" s="20" t="n">
         <v>6</v>
@@ -27232,7 +27232,7 @@
         <v>7</v>
       </c>
       <c r="T92" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U92" s="20" t="n">
         <v>6</v>
@@ -27251,10 +27251,10 @@
         </is>
       </c>
       <c r="B93" s="18" t="n">
-        <v>137.5</v>
+        <v>134.5</v>
       </c>
       <c r="C93" s="19" t="n">
-        <v>6.88</v>
+        <v>6.72</v>
       </c>
       <c r="D93" s="20" t="n">
         <v>7</v>
@@ -27266,7 +27266,7 @@
         <v>6</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="H93" s="20" t="n">
         <v>6</v>
@@ -27293,7 +27293,7 @@
         <v>6</v>
       </c>
       <c r="P93" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93" s="20" t="n">
         <v>5</v>
@@ -27324,10 +27324,10 @@
         </is>
       </c>
       <c r="B94" s="18" t="n">
-        <v>138.5</v>
+        <v>134.5</v>
       </c>
       <c r="C94" s="19" t="n">
-        <v>6.92</v>
+        <v>6.72</v>
       </c>
       <c r="D94" s="20" t="n">
         <v>8</v>
@@ -27339,7 +27339,7 @@
         <v>6</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H94" s="20" t="n">
         <v>6</v>
@@ -27354,7 +27354,7 @@
         <v>7</v>
       </c>
       <c r="L94" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M94" s="20" t="n">
         <v>7</v>
@@ -27363,7 +27363,7 @@
         <v>6.5</v>
       </c>
       <c r="O94" s="20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P94" s="20" t="n">
         <v>7.5</v>
@@ -27397,10 +27397,10 @@
         </is>
       </c>
       <c r="B95" s="18" t="n">
-        <v>132</v>
+        <v>128.5</v>
       </c>
       <c r="C95" s="19" t="n">
-        <v>6.6</v>
+        <v>6.42</v>
       </c>
       <c r="D95" s="20" t="n">
         <v>7</v>
@@ -27427,13 +27427,13 @@
         <v>6</v>
       </c>
       <c r="L95" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M95" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N95" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O95" s="20" t="n">
         <v>6</v>
@@ -27451,7 +27451,7 @@
         <v>6</v>
       </c>
       <c r="T95" s="20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U95" s="20" t="n">
         <v>5</v>
@@ -27460,7 +27460,7 @@
         <v>6.5</v>
       </c>
       <c r="W95" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="96">
@@ -27470,16 +27470,16 @@
         </is>
       </c>
       <c r="B96" s="18" t="n">
-        <v>129.5</v>
+        <v>124.5</v>
       </c>
       <c r="C96" s="19" t="n">
-        <v>6.47</v>
+        <v>6.22</v>
       </c>
       <c r="D96" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E96" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F96" s="20" t="n">
         <v>5</v>
@@ -27494,7 +27494,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K96" s="20" t="n">
         <v>7</v>
@@ -27509,7 +27509,7 @@
         <v>7.5</v>
       </c>
       <c r="O96" s="20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P96" s="20" t="n">
         <v>7</v>
@@ -27521,7 +27521,7 @@
         <v>6.5</v>
       </c>
       <c r="S96" s="20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T96" s="20" t="n">
         <v>7.5</v>
@@ -27533,7 +27533,7 @@
         <v>7.5</v>
       </c>
       <c r="W96" s="20" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="97">
@@ -27543,10 +27543,10 @@
         </is>
       </c>
       <c r="B97" s="18" t="n">
-        <v>149.5</v>
+        <v>145.5</v>
       </c>
       <c r="C97" s="19" t="n">
-        <v>7.47</v>
+        <v>7.28</v>
       </c>
       <c r="D97" s="20" t="n">
         <v>7</v>
@@ -27558,7 +27558,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H97" s="20" t="n">
         <v>5.5</v>
@@ -27573,7 +27573,7 @@
         <v>7.5</v>
       </c>
       <c r="L97" s="20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M97" s="20" t="n">
         <v>7.5</v>
@@ -27585,7 +27585,7 @@
         <v>7.5</v>
       </c>
       <c r="P97" s="20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q97" s="20" t="n">
         <v>6.5</v>
@@ -27606,7 +27606,7 @@
         <v>7</v>
       </c>
       <c r="W97" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="98">
@@ -27616,10 +27616,10 @@
         </is>
       </c>
       <c r="B98" s="18" t="n">
-        <v>147.5</v>
+        <v>146.5</v>
       </c>
       <c r="C98" s="19" t="n">
-        <v>7.38</v>
+        <v>7.33</v>
       </c>
       <c r="D98" s="20" t="n">
         <v>7</v>
@@ -27640,13 +27640,13 @@
         <v>7.5</v>
       </c>
       <c r="J98" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K98" s="20" t="n">
         <v>6.5</v>
       </c>
       <c r="L98" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M98" s="20" t="n">
         <v>7.5</v>
@@ -27689,22 +27689,22 @@
         </is>
       </c>
       <c r="B99" s="18" t="n">
-        <v>154.5</v>
+        <v>149.5</v>
       </c>
       <c r="C99" s="19" t="n">
-        <v>7.72</v>
+        <v>7.47</v>
       </c>
       <c r="D99" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="E99" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F99" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="G99" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H99" s="20" t="n">
         <v>6</v>
@@ -27713,10 +27713,10 @@
         <v>7.5</v>
       </c>
       <c r="J99" s="20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K99" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L99" s="20" t="n">
         <v>7.5</v>
@@ -27725,13 +27725,13 @@
         <v>7.5</v>
       </c>
       <c r="N99" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O99" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="P99" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q99" s="20" t="n">
         <v>8</v>
@@ -27743,7 +27743,7 @@
         <v>7.5</v>
       </c>
       <c r="T99" s="20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U99" s="20" t="n">
         <v>7</v>
@@ -27762,25 +27762,25 @@
         </is>
       </c>
       <c r="B100" s="18" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C100" s="19" t="n">
-        <v>7.35</v>
+        <v>7.15</v>
       </c>
       <c r="D100" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="E100" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F100" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G100" s="20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H100" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I100" s="20" t="n">
         <v>6.5</v>
@@ -27801,7 +27801,7 @@
         <v>8.5</v>
       </c>
       <c r="O100" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P100" s="20" t="n">
         <v>7.5</v>
@@ -27816,7 +27816,7 @@
         <v>7.5</v>
       </c>
       <c r="T100" s="20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U100" s="20" t="n">
         <v>7</v>
@@ -27825,7 +27825,7 @@
         <v>7.5</v>
       </c>
       <c r="W100" s="20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -27835,25 +27835,25 @@
         </is>
       </c>
       <c r="B101" s="18" t="n">
-        <v>145.5</v>
+        <v>142</v>
       </c>
       <c r="C101" s="19" t="n">
-        <v>7.28</v>
+        <v>7.1</v>
       </c>
       <c r="D101" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="E101" s="20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="F101" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="G101" s="20" t="n">
         <v>7.5</v>
       </c>
       <c r="H101" s="20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I101" s="20" t="n">
         <v>5.5</v>
@@ -27862,7 +27862,7 @@
         <v>7.5</v>
       </c>
       <c r="K101" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L101" s="20" t="n">
         <v>8</v>
@@ -27874,7 +27874,7 @@
         <v>7.5</v>
       </c>
       <c r="O101" s="20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="P101" s="20" t="n">
         <v>7.5</v>
@@ -27908,10 +27908,10 @@
         </is>
       </c>
       <c r="B102" s="18" t="n">
-        <v>139</v>
+        <v>137.5</v>
       </c>
       <c r="C102" s="19" t="n">
-        <v>6.95</v>
+        <v>6.88</v>
       </c>
       <c r="D102" s="20" t="n">
         <v>6.5</v>
@@ -27959,7 +27959,7 @@
         <v>5</v>
       </c>
       <c r="S102" s="20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="T102" s="20" t="n">
         <v>7</v>
@@ -27971,7 +27971,7 @@
         <v>7.5</v>
       </c>
       <c r="W102" s="20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -27981,10 +27981,10 @@
         </is>
       </c>
       <c r="B103" s="18" t="n">
-        <v>131.5</v>
+        <v>129</v>
       </c>
       <c r="C103" s="19" t="n">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="D103" s="20" t="n">
         <v>6.5</v>
@@ -28023,7 +28023,7 @@
         <v>6</v>
       </c>
       <c r="P103" s="20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q103" s="20" t="n">
         <v>7</v>
@@ -28032,7 +28032,7 @@
         <v>5</v>
       </c>
       <c r="S103" s="20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T103" s="20" t="n">
         <v>6</v>
@@ -28044,7 +28044,7 @@
         <v>3.5</v>
       </c>
       <c r="W103" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -28054,10 +28054,10 @@
         </is>
       </c>
       <c r="B104" s="18" t="n">
-        <v>123.5</v>
+        <v>121.5</v>
       </c>
       <c r="C104" s="19" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="D104" s="20" t="n">
         <v>6</v>
@@ -28108,7 +28108,7 @@
         <v>6.5</v>
       </c>
       <c r="T104" s="20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U104" s="20" t="n">
         <v>6</v>
@@ -28117,7 +28117,7 @@
         <v>4.5</v>
       </c>
       <c r="W104" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -28127,10 +28127,10 @@
         </is>
       </c>
       <c r="B105" s="18" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="19" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="D105" s="20" t="n">
         <v>4</v>
@@ -28169,7 +28169,7 @@
         <v>3.5</v>
       </c>
       <c r="P105" s="20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q105" s="20" t="n">
         <v>4.5</v>
@@ -28273,10 +28273,10 @@
         </is>
       </c>
       <c r="B107" s="18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C107" s="19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="D107" s="20" t="n">
         <v>3</v>
@@ -28288,7 +28288,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H107" s="20" t="n">
         <v>3.5</v>
@@ -28346,10 +28346,10 @@
         </is>
       </c>
       <c r="B108" s="18" t="n">
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="C108" s="19" t="n">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="D108" s="20" t="n">
         <v>2</v>
@@ -28361,7 +28361,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="20" t="n">
         <v>2.5</v>
@@ -28419,10 +28419,10 @@
         </is>
       </c>
       <c r="B109" s="18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C109" s="19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="D109" s="20" t="n">
         <v>2</v>
@@ -28434,7 +28434,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" s="20" t="n">
         <v>2</v>

--- a/時間帯別稼働推移-結果.xlsx
+++ b/時間帯別稼働推移-結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4125" yWindow="3510" windowWidth="21600" windowHeight="12645" tabRatio="842" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="時間帯別稼働推移元データ" sheetId="1" state="visible" r:id="rId1"/>
@@ -635,12 +635,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="12"/>
   <cols>
-    <col width="15.83203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="10.08203125" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="10.08203125" customWidth="1" style="7" min="3" max="3"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="15.875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.125" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="10.125" customWidth="1" style="7" min="3" max="3"/>
+    <col width="11.875" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
     <col width="14" customWidth="1" style="7" min="5" max="6"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="11.875" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
     <col width="8.25" customWidth="1" style="5" min="8" max="10"/>
     <col width="8.25" customWidth="1" style="5" min="11" max="16384"/>
   </cols>
@@ -18845,13 +18845,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -18872,7 +18872,12 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>01A手術室の使用のみを集計し、01B手術室の使用は集計しない</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -18882,7 +18887,12 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>01B使用があった場合は、01A使用として集計する</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -19001,6 +19011,41 @@
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>土曜日の稼働を計算</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>手術室使用を集計するためのサンプリング間隔は、8:00-20:29までの1分毎の使用有無で判断する</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>ある手術室のある時刻で、手術室が使用されていた場合（入室時刻と麻酔終了時刻かまたはその間にある場合）、当該時刻の手術室使用数は1.0とする</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>ある手術室のある時刻で、手術室が1つ以上の手術で使用されている場合も、当該時刻の手術室使用数は1.0とする</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>スナップショット時刻の集計は、8:00-20:00の30分毎とし、スナップショット時刻8:00の集計は、8:00-8:29つまり、スナップショット時刻＋０～+29分までを集計区間とする</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>スナップショット時刻8:00での集計は、8:00-8:29区間に集計された30個の手術使用数の総計を30で除算した平均使用数とする</t>
         </is>
       </c>
     </row>
@@ -19017,13 +19062,13 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="23.58203125" customWidth="1" style="12" min="1" max="1"/>
+    <col width="23.625" customWidth="1" style="12" min="1" max="1"/>
     <col width="9" customWidth="1" style="12" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -19119,76 +19164,76 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>6.55</v>
+        <v>6.8</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>6.62</v>
+        <v>6.9</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>6.83</v>
+        <v>7.1</v>
       </c>
       <c r="G2" s="9" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="H2" s="9" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="I2" s="9" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="J2" s="9" t="n">
-        <v>6.42</v>
+        <v>6.7</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>6.22</v>
+        <v>6.45</v>
       </c>
       <c r="L2" s="9" t="n">
-        <v>7.28</v>
+        <v>7.6</v>
       </c>
       <c r="M2" s="9" t="n">
-        <v>7.33</v>
+        <v>7.55</v>
       </c>
       <c r="N2" s="9" t="n">
-        <v>7.47</v>
+        <v>7.8</v>
       </c>
       <c r="O2" s="9" t="n">
-        <v>7.15</v>
+        <v>7.45</v>
       </c>
       <c r="P2" s="9" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="Q2" s="9" t="n">
         <v>7.1</v>
       </c>
-      <c r="Q2" s="9" t="n">
-        <v>6.88</v>
-      </c>
       <c r="R2" s="9" t="n">
-        <v>6.45</v>
+        <v>6.6</v>
       </c>
       <c r="S2" s="9" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="T2" s="9" t="n">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="U2" s="9" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W2" s="9" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X2" s="9" t="n">
         <v>1.7</v>
       </c>
       <c r="Y2" s="9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z2" s="9" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -19201,67 +19246,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>6.05</v>
+        <v>6.3</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>6.12</v>
+        <v>6.4</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>6.22</v>
+        <v>6.5</v>
       </c>
       <c r="G3" s="9" t="n">
-        <v>6.03</v>
+        <v>6.3</v>
       </c>
       <c r="H3" s="9" t="n">
-        <v>5.92</v>
+        <v>6.2</v>
       </c>
       <c r="I3" s="9" t="n">
-        <v>5.92</v>
+        <v>6.2</v>
       </c>
       <c r="J3" s="9" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>5.42</v>
+        <v>5.65</v>
       </c>
       <c r="L3" s="9" t="n">
-        <v>6.33</v>
+        <v>6.65</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>6.28</v>
+        <v>6.5</v>
       </c>
       <c r="N3" s="9" t="n">
-        <v>6.3</v>
+        <v>6.55</v>
       </c>
       <c r="O3" s="9" t="n">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="P3" s="9" t="n">
-        <v>5.72</v>
+        <v>5.95</v>
       </c>
       <c r="Q3" s="9" t="n">
-        <v>5.58</v>
+        <v>5.75</v>
       </c>
       <c r="R3" s="9" t="n">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="S3" s="9" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="T3" s="9" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="U3" s="9" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3" s="9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X3" s="9" t="n">
         <v>0.85</v>
@@ -19372,67 +19417,67 @@
         <v>0</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>6.88</v>
+        <v>7.25</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="G7" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="H7" s="9" t="n">
-        <v>7.38</v>
+        <v>7.75</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>7.38</v>
+        <v>7.75</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>6.62</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>6.88</v>
+        <v>7</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="R7" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S7" s="9" t="n">
         <v>5.25</v>
       </c>
-      <c r="S7" s="9" t="n">
-        <v>5.12</v>
-      </c>
       <c r="T7" s="9" t="n">
-        <v>4.12</v>
+        <v>4.25</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>4.62</v>
+        <v>4.75</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="X7" s="9" t="n">
         <v>1.75</v>
@@ -19454,31 +19499,31 @@
         <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="D8" s="9" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>5.62</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>5.38</v>
+        <v>5.75</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="L8" s="9" t="n">
         <v>6</v>
@@ -19628,40 +19673,40 @@
         <v>1</v>
       </c>
       <c r="D12" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>7.25</v>
       </c>
-      <c r="E12" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" s="9" t="n">
+      <c r="K12" s="9" t="n">
         <v>6.75</v>
       </c>
-      <c r="K12" s="9" t="n">
-        <v>6.25</v>
-      </c>
       <c r="L12" s="9" t="n">
-        <v>8.380000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="M12" s="9" t="n">
-        <v>7.88</v>
+        <v>8.25</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O12" s="9" t="n">
-        <v>7.88</v>
+        <v>8</v>
       </c>
       <c r="P12" s="9" t="n">
         <v>7.75</v>
@@ -19670,22 +19715,22 @@
         <v>7.75</v>
       </c>
       <c r="R12" s="9" t="n">
-        <v>7.38</v>
+        <v>7.5</v>
       </c>
       <c r="S12" s="9" t="n">
         <v>6.5</v>
       </c>
       <c r="T12" s="9" t="n">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="U12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="V12" s="9" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W12" s="9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X12" s="9" t="n">
         <v>1.25</v>
@@ -19710,64 +19755,64 @@
         <v>1</v>
       </c>
       <c r="D13" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="I13" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" s="9" t="n">
+      <c r="J13" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="I13" s="9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J13" s="9" t="n">
+      <c r="K13" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q13" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R13" s="9" t="n">
         <v>6</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L13" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="M13" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="N13" s="9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="O13" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="P13" s="9" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="Q13" s="9" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="R13" s="9" t="n">
-        <v>5.88</v>
       </c>
       <c r="S13" s="9" t="n">
         <v>5</v>
       </c>
       <c r="T13" s="9" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="U13" s="9" t="n">
         <v>2.25</v>
       </c>
       <c r="V13" s="9" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="W13" s="9" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="X13" s="9" t="n">
         <v>0.75</v>
@@ -19905,37 +19950,37 @@
         <v>6</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>7.38</v>
+        <v>7.75</v>
       </c>
       <c r="M17" s="9" t="n">
-        <v>7.12</v>
+        <v>7.5</v>
       </c>
       <c r="N17" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="9" t="n">
         <v>7.5</v>
       </c>
-      <c r="O17" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P17" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q17" s="9" t="n">
-        <v>7</v>
-      </c>
       <c r="R17" s="9" t="n">
-        <v>6.38</v>
+        <v>6.75</v>
       </c>
       <c r="S17" s="9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="T17" s="9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U17" s="9" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="V17" s="9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W17" s="9" t="n">
         <v>2</v>
@@ -19987,28 +20032,28 @@
         <v>5</v>
       </c>
       <c r="L18" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" s="9" t="n">
         <v>5.75</v>
       </c>
-      <c r="M18" s="9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="N18" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="9" t="n">
         <v>5.75</v>
       </c>
-      <c r="O18" s="9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P18" s="9" t="n">
+      <c r="Q18" s="9" t="n">
         <v>5.25</v>
       </c>
-      <c r="Q18" s="9" t="n">
-        <v>4.75</v>
-      </c>
       <c r="R18" s="9" t="n">
-        <v>3.88</v>
+        <v>4.25</v>
       </c>
       <c r="S18" s="9" t="n">
-        <v>3.38</v>
+        <v>3.5</v>
       </c>
       <c r="T18" s="9" t="n">
         <v>2.75</v>
@@ -20134,52 +20179,52 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="n">
-        <v>6.38</v>
+        <v>6.75</v>
       </c>
       <c r="E22" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="O22" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="F22" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="H22" s="9" t="n">
+      <c r="P22" s="9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q22" s="9" t="n">
         <v>6.75</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="M22" s="9" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="N22" s="9" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="O22" s="9" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="P22" s="9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q22" s="9" t="n">
-        <v>6.62</v>
       </c>
       <c r="R22" s="9" t="n">
         <v>6.75</v>
       </c>
       <c r="S22" s="9" t="n">
-        <v>6.38</v>
+        <v>6.25</v>
       </c>
       <c r="T22" s="9" t="n">
         <v>5.75</v>
@@ -20197,10 +20242,10 @@
         <v>2</v>
       </c>
       <c r="Y22" s="9" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="9" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
@@ -20216,43 +20261,43 @@
         <v>0.75</v>
       </c>
       <c r="D23" s="9" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="E23" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H23" s="9" t="n">
         <v>6.25</v>
       </c>
-      <c r="F23" s="9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G23" s="9" t="n">
+      <c r="I23" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <v>6.25</v>
       </c>
-      <c r="H23" s="9" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I23" s="9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>5.88</v>
-      </c>
       <c r="L23" s="9" t="n">
-        <v>6.38</v>
+        <v>6.75</v>
       </c>
       <c r="M23" s="9" t="n">
-        <v>6.38</v>
+        <v>6.75</v>
       </c>
       <c r="N23" s="9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O23" s="9" t="n">
-        <v>5.12</v>
+        <v>5.5</v>
       </c>
       <c r="P23" s="9" t="n">
-        <v>5.62</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="9" t="n">
         <v>5.25</v>
@@ -20261,7 +20306,7 @@
         <v>5.25</v>
       </c>
       <c r="S23" s="9" t="n">
-        <v>4.88</v>
+        <v>4.75</v>
       </c>
       <c r="T23" s="9" t="n">
         <v>4</v>
@@ -20411,40 +20456,40 @@
         <v>5.25</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M27" s="9" t="n">
-        <v>7.12</v>
+        <v>7</v>
       </c>
       <c r="N27" s="9" t="n">
-        <v>7.12</v>
+        <v>7.25</v>
       </c>
       <c r="O27" s="9" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="P27" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q27" s="9" t="n">
         <v>7</v>
-      </c>
-      <c r="P27" s="9" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="Q27" s="9" t="n">
-        <v>6.75</v>
       </c>
       <c r="R27" s="9" t="n">
         <v>6.5</v>
       </c>
       <c r="S27" s="9" t="n">
-        <v>6.62</v>
+        <v>6.75</v>
       </c>
       <c r="T27" s="9" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="U27" s="9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="V27" s="9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W27" s="9" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="X27" s="9" t="n">
         <v>1.75</v>
@@ -20493,40 +20538,40 @@
         <v>5</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="M28" s="9" t="n">
         <v>6.5</v>
       </c>
       <c r="N28" s="9" t="n">
-        <v>6.38</v>
+        <v>6.25</v>
       </c>
       <c r="O28" s="9" t="n">
         <v>6.25</v>
       </c>
       <c r="P28" s="9" t="n">
-        <v>6.12</v>
+        <v>6.25</v>
       </c>
       <c r="Q28" s="9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="R28" s="9" t="n">
         <v>5.75</v>
       </c>
       <c r="S28" s="9" t="n">
-        <v>5.62</v>
+        <v>5.75</v>
       </c>
       <c r="T28" s="9" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="U28" s="9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V28" s="9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W28" s="9" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="X28" s="9" t="n">
         <v>0.75</v>
@@ -21039,10 +21084,10 @@
         </is>
       </c>
       <c r="B4" s="18" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="C4" s="19" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="D4" s="20" t="n">
         <v>2</v>
@@ -21060,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="20" t="n">
         <v>1</v>
@@ -21112,55 +21157,55 @@
         </is>
       </c>
       <c r="B5" s="18" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C5" s="19" t="n">
-        <v>6.05</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G5" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="20" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K5" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L5" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R5" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="20" t="n">
         <v>6</v>
@@ -21172,10 +21217,10 @@
         <v>6</v>
       </c>
       <c r="V5" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W5" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -21185,70 +21230,70 @@
         </is>
       </c>
       <c r="B6" s="18" t="n">
-        <v>122.5</v>
+        <v>128</v>
       </c>
       <c r="C6" s="19" t="n">
-        <v>6.12</v>
+        <v>6.4</v>
       </c>
       <c r="D6" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G6" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="20" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R6" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W6" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -21258,70 +21303,70 @@
         </is>
       </c>
       <c r="B7" s="18" t="n">
-        <v>124.5</v>
+        <v>130</v>
       </c>
       <c r="C7" s="19" t="n">
-        <v>6.22</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I7" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U7" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -21331,70 +21376,70 @@
         </is>
       </c>
       <c r="B8" s="18" t="n">
-        <v>120.5</v>
+        <v>126</v>
       </c>
       <c r="C8" s="19" t="n">
-        <v>6.03</v>
+        <v>6.3</v>
       </c>
       <c r="D8" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="20" t="n">
         <v>4</v>
       </c>
       <c r="R8" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T8" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V8" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W8" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -21404,70 +21449,70 @@
         </is>
       </c>
       <c r="B9" s="18" t="n">
-        <v>118.5</v>
+        <v>124</v>
       </c>
       <c r="C9" s="19" t="n">
-        <v>5.92</v>
+        <v>6.2</v>
       </c>
       <c r="D9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G9" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I9" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L9" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T9" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U9" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V9" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W9" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -21477,70 +21522,70 @@
         </is>
       </c>
       <c r="B10" s="18" t="n">
-        <v>118.5</v>
+        <v>124</v>
       </c>
       <c r="C10" s="19" t="n">
-        <v>5.92</v>
+        <v>6.2</v>
       </c>
       <c r="D10" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E10" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G10" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I10" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L10" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M10" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="P10" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R10" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="T10" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U10" s="20" t="n">
         <v>5</v>
       </c>
       <c r="V10" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W10" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -21550,70 +21595,70 @@
         </is>
       </c>
       <c r="B11" s="18" t="n">
-        <v>113.5</v>
+        <v>119</v>
       </c>
       <c r="C11" s="19" t="n">
-        <v>5.67</v>
+        <v>5.95</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E11" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G11" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I11" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="L11" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="P11" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R11" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="T11" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="V11" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W11" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -21623,22 +21668,22 @@
         </is>
       </c>
       <c r="B12" s="18" t="n">
-        <v>108.5</v>
+        <v>113</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>5.42</v>
+        <v>5.65</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="20" t="n">
         <v>5</v>
       </c>
       <c r="G12" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="20" t="n">
         <v>5</v>
@@ -21647,19 +21692,19 @@
         <v>5</v>
       </c>
       <c r="J12" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K12" s="20" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" s="20" t="n">
         <v>5</v>
@@ -21671,22 +21716,22 @@
         <v>5</v>
       </c>
       <c r="R12" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S12" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T12" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U12" s="20" t="n">
         <v>4</v>
       </c>
       <c r="V12" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W12" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -21696,70 +21741,70 @@
         </is>
       </c>
       <c r="B13" s="18" t="n">
-        <v>126.5</v>
+        <v>133</v>
       </c>
       <c r="C13" s="19" t="n">
-        <v>6.33</v>
+        <v>6.65</v>
       </c>
       <c r="D13" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E13" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F13" s="20" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="20" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="20" t="n">
         <v>4</v>
       </c>
       <c r="L13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N13" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P13" s="20" t="n">
         <v>5</v>
       </c>
       <c r="Q13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R13" s="20" t="n">
         <v>6</v>
       </c>
       <c r="S13" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T13" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V13" s="20" t="n">
         <v>6</v>
       </c>
       <c r="W13" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -21769,22 +21814,22 @@
         </is>
       </c>
       <c r="B14" s="18" t="n">
-        <v>125.5</v>
+        <v>130</v>
       </c>
       <c r="C14" s="19" t="n">
-        <v>6.28</v>
+        <v>6.5</v>
       </c>
       <c r="D14" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E14" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F14" s="20" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="20" t="n">
         <v>6</v>
@@ -21793,22 +21838,22 @@
         <v>5</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="20" t="n">
         <v>3</v>
       </c>
       <c r="L14" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M14" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P14" s="20" t="n">
         <v>5</v>
@@ -21820,10 +21865,10 @@
         <v>6</v>
       </c>
       <c r="S14" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T14" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U14" s="20" t="n">
         <v>7</v>
@@ -21832,7 +21877,7 @@
         <v>6</v>
       </c>
       <c r="W14" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -21842,22 +21887,22 @@
         </is>
       </c>
       <c r="B15" s="18" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C15" s="19" t="n">
-        <v>6.3</v>
+        <v>6.55</v>
       </c>
       <c r="D15" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="20" t="n">
         <v>6</v>
@@ -21866,37 +21911,37 @@
         <v>5</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K15" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M15" s="20" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="20" t="n">
         <v>6</v>
       </c>
       <c r="S15" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T15" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U15" s="20" t="n">
         <v>7</v>
@@ -21915,49 +21960,49 @@
         </is>
       </c>
       <c r="B16" s="18" t="n">
-        <v>118.5</v>
+        <v>123</v>
       </c>
       <c r="C16" s="19" t="n">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="D16" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E16" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F16" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G16" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H16" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="20" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K16" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L16" s="20" t="n">
         <v>5</v>
       </c>
       <c r="M16" s="20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N16" s="20" t="n">
         <v>8</v>
       </c>
       <c r="O16" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P16" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="20" t="n">
         <v>6</v>
@@ -21966,10 +22011,10 @@
         <v>6</v>
       </c>
       <c r="S16" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T16" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U16" s="20" t="n">
         <v>7</v>
@@ -21988,10 +22033,10 @@
         </is>
       </c>
       <c r="B17" s="18" t="n">
-        <v>114.5</v>
+        <v>119</v>
       </c>
       <c r="C17" s="19" t="n">
-        <v>5.72</v>
+        <v>5.95</v>
       </c>
       <c r="D17" s="20" t="n">
         <v>6</v>
@@ -22000,10 +22045,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G17" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="20" t="n">
         <v>7</v>
@@ -22012,25 +22057,25 @@
         <v>5</v>
       </c>
       <c r="J17" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L17" s="20" t="n">
         <v>6</v>
       </c>
       <c r="M17" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="20" t="n">
         <v>7</v>
       </c>
       <c r="O17" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P17" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="20" t="n">
         <v>6</v>
@@ -22039,10 +22084,10 @@
         <v>4</v>
       </c>
       <c r="S17" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T17" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U17" s="20" t="n">
         <v>6</v>
@@ -22061,10 +22106,10 @@
         </is>
       </c>
       <c r="B18" s="18" t="n">
-        <v>111.5</v>
+        <v>115</v>
       </c>
       <c r="C18" s="19" t="n">
-        <v>5.58</v>
+        <v>5.75</v>
       </c>
       <c r="D18" s="20" t="n">
         <v>6</v>
@@ -22073,7 +22118,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="20" t="n">
         <v>5</v>
@@ -22085,10 +22130,10 @@
         <v>5</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K18" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L18" s="20" t="n">
         <v>5</v>
@@ -22100,25 +22145,25 @@
         <v>7</v>
       </c>
       <c r="O18" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="20" t="n">
         <v>5</v>
       </c>
       <c r="Q18" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R18" s="20" t="n">
         <v>4</v>
       </c>
       <c r="S18" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T18" s="20" t="n">
         <v>6</v>
       </c>
       <c r="U18" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V18" s="20" t="n">
         <v>5</v>
@@ -22134,10 +22179,10 @@
         </is>
       </c>
       <c r="B19" s="18" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="D19" s="20" t="n">
         <v>6</v>
@@ -22146,13 +22191,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H19" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="20" t="n">
         <v>5</v>
@@ -22161,7 +22206,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="20" t="n">
         <v>5</v>
@@ -22170,7 +22215,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O19" s="20" t="n">
         <v>5</v>
@@ -22185,13 +22230,13 @@
         <v>3</v>
       </c>
       <c r="S19" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T19" s="20" t="n">
         <v>5</v>
       </c>
       <c r="U19" s="20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V19" s="20" t="n">
         <v>2</v>
@@ -22207,16 +22252,16 @@
         </is>
       </c>
       <c r="B20" s="18" t="n">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="C20" s="19" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="D20" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E20" s="20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="20" t="n">
         <v>2</v>
@@ -22225,7 +22270,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I20" s="20" t="n">
         <v>4</v>
@@ -22243,7 +22288,7 @@
         <v>5</v>
       </c>
       <c r="N20" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="20" t="n">
         <v>5</v>
@@ -22258,10 +22303,10 @@
         <v>3</v>
       </c>
       <c r="S20" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T20" s="20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="U20" s="20" t="n">
         <v>6</v>
@@ -22280,16 +22325,16 @@
         </is>
       </c>
       <c r="B21" s="18" t="n">
-        <v>73.5</v>
+        <v>75</v>
       </c>
       <c r="C21" s="19" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="D21" s="20" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="20" t="n">
         <v>2</v>
@@ -22298,7 +22343,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="20" t="n">
         <v>3</v>
@@ -22316,7 +22361,7 @@
         <v>5</v>
       </c>
       <c r="N21" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O21" s="20" t="n">
         <v>3</v>
@@ -22325,7 +22370,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R21" s="20" t="n">
         <v>2</v>
@@ -22343,7 +22388,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -22353,16 +22398,16 @@
         </is>
       </c>
       <c r="B22" s="18" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="D22" s="20" t="n">
         <v>3</v>
       </c>
       <c r="E22" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="20" t="n">
         <v>1</v>
@@ -22371,7 +22416,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="20" t="n">
         <v>3</v>
@@ -22389,7 +22434,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O22" s="20" t="n">
         <v>2</v>
@@ -22398,7 +22443,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R22" s="20" t="n">
         <v>2</v>
@@ -22426,10 +22471,10 @@
         </is>
       </c>
       <c r="B23" s="18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="19" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="D23" s="20" t="n">
         <v>1</v>
@@ -22444,7 +22489,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I23" s="20" t="n">
         <v>3</v>
@@ -22462,7 +22507,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O23" s="20" t="n">
         <v>2</v>
@@ -22499,10 +22544,10 @@
         </is>
       </c>
       <c r="B24" s="18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="D24" s="20" t="n">
         <v>1</v>
@@ -22517,7 +22562,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="20" t="n">
         <v>2</v>
@@ -22535,7 +22580,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O24" s="20" t="n">
         <v>1</v>
@@ -23666,13 +23711,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J41" s="20" t="n">
         <v>2</v>
       </c>
       <c r="K41" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L41" s="20" t="n">
         <v>0</v>
@@ -23681,7 +23726,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O41" s="20" t="n">
         <v>1</v>
@@ -23699,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U41" s="20" t="n">
         <v>0</v>
@@ -23739,22 +23784,22 @@
         <v>0</v>
       </c>
       <c r="I42" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J42" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L42" s="20" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N42" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O42" s="20" t="n">
         <v>1</v>
@@ -23772,13 +23817,13 @@
         <v>0</v>
       </c>
       <c r="T42" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U42" s="20" t="n">
         <v>0</v>
       </c>
       <c r="V42" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W42" s="20" t="n">
         <v>1</v>
@@ -23791,10 +23836,10 @@
         </is>
       </c>
       <c r="B43" s="18" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="C43" s="19" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="D43" s="20" t="n">
         <v>1</v>
@@ -23812,22 +23857,22 @@
         <v>0</v>
       </c>
       <c r="I43" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J43" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K43" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L43" s="20" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N43" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O43" s="20" t="n">
         <v>1</v>
@@ -23836,7 +23881,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R43" s="20" t="n">
         <v>1</v>
@@ -23845,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="T43" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U43" s="20" t="n">
         <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W43" s="20" t="n">
         <v>1</v>
@@ -23864,10 +23909,10 @@
         </is>
       </c>
       <c r="B44" s="18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="19" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="D44" s="20" t="n">
         <v>1</v>
@@ -23885,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J44" s="20" t="n">
         <v>1</v>
@@ -23897,10 +23942,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N44" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O44" s="20" t="n">
         <v>1</v>
@@ -23909,7 +23954,7 @@
         <v>2</v>
       </c>
       <c r="Q44" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R44" s="20" t="n">
         <v>1</v>
@@ -23918,13 +23963,13 @@
         <v>1</v>
       </c>
       <c r="T44" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U44" s="20" t="n">
         <v>0</v>
       </c>
       <c r="V44" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W44" s="20" t="n">
         <v>1</v>
@@ -23958,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J45" s="20" t="n">
         <v>1</v>
@@ -23973,7 +24018,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O45" s="20" t="n">
         <v>1</v>
@@ -23991,13 +24036,13 @@
         <v>1</v>
       </c>
       <c r="T45" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U45" s="20" t="n">
         <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W45" s="20" t="n">
         <v>1</v>
@@ -24010,10 +24055,10 @@
         </is>
       </c>
       <c r="B46" s="18" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="C46" s="19" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="D46" s="20" t="n">
         <v>0</v>
@@ -24025,7 +24070,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="20" t="n">
         <v>0</v>
@@ -24046,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O46" s="20" t="n">
         <v>0</v>
@@ -24070,7 +24115,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W46" s="20" t="n">
         <v>0</v>
@@ -24083,10 +24128,10 @@
         </is>
       </c>
       <c r="B47" s="18" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C47" s="19" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="D47" s="20" t="n">
         <v>0</v>
@@ -24143,7 +24188,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W47" s="20" t="n">
         <v>0</v>
@@ -24156,10 +24201,10 @@
         </is>
       </c>
       <c r="B48" s="18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="19" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="D48" s="20" t="n">
         <v>0</v>
@@ -24168,7 +24213,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>0</v>
@@ -24216,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W48" s="20" t="n">
         <v>0</v>
@@ -24229,10 +24274,10 @@
         </is>
       </c>
       <c r="B49" s="18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" s="19" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D49" s="20" t="n">
         <v>1</v>
@@ -24241,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G49" s="20" t="n">
         <v>1</v>
@@ -24289,7 +24334,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W49" s="20" t="n">
         <v>0</v>
@@ -24302,10 +24347,10 @@
         </is>
       </c>
       <c r="B50" s="18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="C50" s="19" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D50" s="20" t="n">
         <v>1</v>
@@ -24362,7 +24407,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W50" s="20" t="n">
         <v>0</v>
@@ -24375,10 +24420,10 @@
         </is>
       </c>
       <c r="B51" s="18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C51" s="19" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D51" s="20" t="n">
         <v>1</v>
@@ -24435,7 +24480,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W51" s="20" t="n">
         <v>0</v>
@@ -24448,10 +24493,10 @@
         </is>
       </c>
       <c r="B52" s="18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="C52" s="19" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="D52" s="20" t="n">
         <v>0</v>
@@ -24508,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W52" s="20" t="n">
         <v>0</v>
@@ -25740,13 +25785,13 @@
         </is>
       </c>
       <c r="B71" s="18" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="19" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D71" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="20" t="n">
         <v>0</v>
@@ -25813,13 +25858,13 @@
         </is>
       </c>
       <c r="B72" s="18" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C72" s="19" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="D72" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E72" s="20" t="n">
         <v>0</v>
@@ -25886,13 +25931,13 @@
         </is>
       </c>
       <c r="B73" s="18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C73" s="19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D73" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E73" s="20" t="n">
         <v>0</v>
@@ -25959,13 +26004,13 @@
         </is>
       </c>
       <c r="B74" s="18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="19" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D74" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="20" t="n">
         <v>0</v>
@@ -26032,13 +26077,13 @@
         </is>
       </c>
       <c r="B75" s="18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="19" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="D75" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="20" t="n">
         <v>0</v>
@@ -26178,10 +26223,10 @@
         </is>
       </c>
       <c r="B77" s="18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C77" s="19" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D77" s="20" t="n">
         <v>0</v>
@@ -26217,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P77" s="20" t="n">
         <v>0</v>
@@ -26251,10 +26296,10 @@
         </is>
       </c>
       <c r="B78" s="18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="19" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D78" s="20" t="n">
         <v>1</v>
@@ -26290,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P78" s="20" t="n">
         <v>0</v>
@@ -26324,10 +26369,10 @@
         </is>
       </c>
       <c r="B79" s="18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="19" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D79" s="20" t="n">
         <v>1</v>
@@ -26363,7 +26408,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P79" s="20" t="n">
         <v>0</v>
@@ -26543,10 +26588,10 @@
         </is>
       </c>
       <c r="B82" s="18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C82" s="19" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="D82" s="20" t="n">
         <v>1</v>
@@ -26597,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="T82" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U82" s="20" t="n">
         <v>0</v>
@@ -26616,10 +26661,10 @@
         </is>
       </c>
       <c r="B83" s="18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C83" s="19" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D83" s="20" t="n">
         <v>0</v>
@@ -26670,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U83" s="20" t="n">
         <v>0</v>
@@ -26886,10 +26931,10 @@
         </is>
       </c>
       <c r="B88" s="18" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C88" s="19" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="D88" s="20" t="n">
         <v>2</v>
@@ -26907,7 +26952,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J88" s="20" t="n">
         <v>1</v>
@@ -26959,55 +27004,55 @@
         </is>
       </c>
       <c r="B89" s="18" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C89" s="19" t="n">
-        <v>6.55</v>
+        <v>6.8</v>
       </c>
       <c r="D89" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E89" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F89" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H89" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J89" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K89" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M89" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N89" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O89" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q89" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R89" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S89" s="20" t="n">
         <v>7</v>
@@ -27019,10 +27064,10 @@
         <v>6</v>
       </c>
       <c r="V89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W89" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -27032,70 +27077,70 @@
         </is>
       </c>
       <c r="B90" s="18" t="n">
-        <v>132.5</v>
+        <v>138</v>
       </c>
       <c r="C90" s="19" t="n">
-        <v>6.62</v>
+        <v>6.9</v>
       </c>
       <c r="D90" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E90" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J90" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M90" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N90" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q90" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R90" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S90" s="20" t="n">
         <v>7</v>
       </c>
       <c r="T90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U90" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V90" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W90" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -27105,70 +27150,70 @@
         </is>
       </c>
       <c r="B91" s="18" t="n">
-        <v>136.5</v>
+        <v>142</v>
       </c>
       <c r="C91" s="19" t="n">
-        <v>6.83</v>
+        <v>7.1</v>
       </c>
       <c r="D91" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M91" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q91" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S91" s="20" t="n">
         <v>7</v>
       </c>
       <c r="T91" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U91" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V91" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W91" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -27178,70 +27223,70 @@
         </is>
       </c>
       <c r="B92" s="18" t="n">
-        <v>134.5</v>
+        <v>140</v>
       </c>
       <c r="C92" s="19" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="D92" s="20" t="n">
         <v>8</v>
       </c>
       <c r="E92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F92" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H92" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K92" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M92" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O92" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P92" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q92" s="20" t="n">
         <v>4</v>
       </c>
       <c r="R92" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S92" s="20" t="n">
         <v>7</v>
       </c>
       <c r="T92" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U92" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V92" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W92" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -27251,70 +27296,70 @@
         </is>
       </c>
       <c r="B93" s="18" t="n">
-        <v>134.5</v>
+        <v>140</v>
       </c>
       <c r="C93" s="19" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="D93" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F93" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H93" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K93" s="20" t="n">
         <v>7</v>
       </c>
       <c r="L93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M93" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N93" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O93" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q93" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S93" s="20" t="n">
         <v>7</v>
       </c>
       <c r="T93" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U93" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V93" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W93" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -27324,70 +27369,70 @@
         </is>
       </c>
       <c r="B94" s="18" t="n">
-        <v>134.5</v>
+        <v>140</v>
       </c>
       <c r="C94" s="19" t="n">
-        <v>6.72</v>
+        <v>7</v>
       </c>
       <c r="D94" s="20" t="n">
         <v>8</v>
       </c>
       <c r="E94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F94" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H94" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I94" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K94" s="20" t="n">
         <v>7</v>
       </c>
       <c r="L94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M94" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N94" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O94" s="20" t="n">
         <v>5</v>
       </c>
       <c r="P94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q94" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S94" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U94" s="20" t="n">
         <v>5</v>
       </c>
       <c r="V94" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W94" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -27397,70 +27442,70 @@
         </is>
       </c>
       <c r="B95" s="18" t="n">
-        <v>128.5</v>
+        <v>134</v>
       </c>
       <c r="C95" s="19" t="n">
-        <v>6.42</v>
+        <v>6.7</v>
       </c>
       <c r="D95" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F95" s="20" t="n">
         <v>6</v>
       </c>
       <c r="G95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H95" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K95" s="20" t="n">
         <v>6</v>
       </c>
       <c r="L95" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M95" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N95" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O95" s="20" t="n">
         <v>6</v>
       </c>
       <c r="P95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q95" s="20" t="n">
         <v>5</v>
       </c>
       <c r="R95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S95" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T95" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U95" s="20" t="n">
         <v>5</v>
       </c>
       <c r="V95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W95" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -27470,22 +27515,22 @@
         </is>
       </c>
       <c r="B96" s="18" t="n">
-        <v>124.5</v>
+        <v>129</v>
       </c>
       <c r="C96" s="19" t="n">
-        <v>6.22</v>
+        <v>6.45</v>
       </c>
       <c r="D96" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E96" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F96" s="20" t="n">
         <v>5</v>
       </c>
       <c r="G96" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H96" s="20" t="n">
         <v>5</v>
@@ -27494,19 +27539,19 @@
         <v>6</v>
       </c>
       <c r="J96" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K96" s="20" t="n">
         <v>7</v>
       </c>
       <c r="L96" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M96" s="20" t="n">
         <v>7</v>
       </c>
       <c r="N96" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O96" s="20" t="n">
         <v>6</v>
@@ -27518,22 +27563,22 @@
         <v>5</v>
       </c>
       <c r="R96" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="S96" s="20" t="n">
         <v>6</v>
       </c>
       <c r="T96" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U96" s="20" t="n">
         <v>4</v>
       </c>
       <c r="V96" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W96" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -27543,70 +27588,70 @@
         </is>
       </c>
       <c r="B97" s="18" t="n">
-        <v>145.5</v>
+        <v>152</v>
       </c>
       <c r="C97" s="19" t="n">
-        <v>7.28</v>
+        <v>7.6</v>
       </c>
       <c r="D97" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E97" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F97" s="20" t="n">
         <v>7</v>
       </c>
       <c r="G97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H97" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I97" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J97" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L97" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N97" s="20" t="n">
         <v>9</v>
       </c>
       <c r="O97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P97" s="20" t="n">
         <v>7</v>
       </c>
       <c r="Q97" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="R97" s="20" t="n">
         <v>7</v>
       </c>
       <c r="S97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T97" s="20" t="n">
         <v>8</v>
       </c>
       <c r="U97" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V97" s="20" t="n">
         <v>7</v>
       </c>
       <c r="W97" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -27616,46 +27661,46 @@
         </is>
       </c>
       <c r="B98" s="18" t="n">
-        <v>146.5</v>
+        <v>151</v>
       </c>
       <c r="C98" s="19" t="n">
-        <v>7.33</v>
+        <v>7.55</v>
       </c>
       <c r="D98" s="20" t="n">
         <v>7</v>
       </c>
       <c r="E98" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F98" s="20" t="n">
         <v>7</v>
       </c>
       <c r="G98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H98" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J98" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K98" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L98" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M98" s="20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N98" s="20" t="n">
         <v>9</v>
       </c>
       <c r="O98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P98" s="20" t="n">
         <v>7</v>
@@ -27667,7 +27712,7 @@
         <v>7</v>
       </c>
       <c r="S98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T98" s="20" t="n">
         <v>8</v>
@@ -27676,10 +27721,10 @@
         <v>7</v>
       </c>
       <c r="V98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W98" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -27689,49 +27734,49 @@
         </is>
       </c>
       <c r="B99" s="18" t="n">
-        <v>149.5</v>
+        <v>156</v>
       </c>
       <c r="C99" s="19" t="n">
-        <v>7.47</v>
+        <v>7.8</v>
       </c>
       <c r="D99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H99" s="20" t="n">
         <v>6</v>
       </c>
       <c r="I99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J99" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N99" s="20" t="n">
         <v>9</v>
       </c>
       <c r="O99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q99" s="20" t="n">
         <v>8</v>
@@ -27740,7 +27785,7 @@
         <v>7</v>
       </c>
       <c r="S99" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T99" s="20" t="n">
         <v>7</v>
@@ -27749,7 +27794,7 @@
         <v>7</v>
       </c>
       <c r="V99" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W99" s="20" t="n">
         <v>8</v>
@@ -27762,34 +27807,34 @@
         </is>
       </c>
       <c r="B100" s="18" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C100" s="19" t="n">
-        <v>7.15</v>
+        <v>7.45</v>
       </c>
       <c r="D100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G100" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H100" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I100" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L100" s="20" t="n">
         <v>6</v>
@@ -27798,22 +27843,22 @@
         <v>8</v>
       </c>
       <c r="N100" s="20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="R100" s="20" t="n">
         <v>7</v>
       </c>
       <c r="S100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T100" s="20" t="n">
         <v>6</v>
@@ -27822,7 +27867,7 @@
         <v>7</v>
       </c>
       <c r="V100" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W100" s="20" t="n">
         <v>8</v>
@@ -27835,49 +27880,49 @@
         </is>
       </c>
       <c r="B101" s="18" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C101" s="19" t="n">
-        <v>7.1</v>
+        <v>7.35</v>
       </c>
       <c r="D101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E101" s="20" t="n">
         <v>8</v>
       </c>
       <c r="F101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H101" s="20" t="n">
         <v>7</v>
       </c>
       <c r="I101" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L101" s="20" t="n">
         <v>8</v>
       </c>
       <c r="M101" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N101" s="20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q101" s="20" t="n">
         <v>7</v>
@@ -27886,7 +27931,7 @@
         <v>5</v>
       </c>
       <c r="S101" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T101" s="20" t="n">
         <v>7</v>
@@ -27895,7 +27940,7 @@
         <v>6</v>
       </c>
       <c r="V101" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W101" s="20" t="n">
         <v>8</v>
@@ -27908,22 +27953,22 @@
         </is>
       </c>
       <c r="B102" s="18" t="n">
-        <v>137.5</v>
+        <v>142</v>
       </c>
       <c r="C102" s="19" t="n">
-        <v>6.88</v>
+        <v>7.1</v>
       </c>
       <c r="D102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E102" s="20" t="n">
         <v>8</v>
       </c>
       <c r="F102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H102" s="20" t="n">
         <v>6</v>
@@ -27932,10 +27977,10 @@
         <v>6</v>
       </c>
       <c r="J102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K102" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L102" s="20" t="n">
         <v>6</v>
@@ -27944,31 +27989,31 @@
         <v>7</v>
       </c>
       <c r="N102" s="20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P102" s="20" t="n">
         <v>7</v>
       </c>
       <c r="Q102" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="R102" s="20" t="n">
         <v>5</v>
       </c>
       <c r="S102" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T102" s="20" t="n">
         <v>7</v>
       </c>
       <c r="U102" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V102" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W102" s="20" t="n">
         <v>8</v>
@@ -27981,25 +28026,25 @@
         </is>
       </c>
       <c r="B103" s="18" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C103" s="19" t="n">
-        <v>6.45</v>
+        <v>6.6</v>
       </c>
       <c r="D103" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E103" s="20" t="n">
         <v>6</v>
       </c>
       <c r="F103" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G103" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H103" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I103" s="20" t="n">
         <v>6</v>
@@ -28008,7 +28053,7 @@
         <v>7</v>
       </c>
       <c r="K103" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L103" s="20" t="n">
         <v>8</v>
@@ -28017,7 +28062,7 @@
         <v>7</v>
       </c>
       <c r="N103" s="20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O103" s="20" t="n">
         <v>6</v>
@@ -28032,16 +28077,16 @@
         <v>5</v>
       </c>
       <c r="S103" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T103" s="20" t="n">
         <v>6</v>
       </c>
       <c r="U103" s="20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V103" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W103" s="20" t="n">
         <v>8</v>
@@ -28054,25 +28099,25 @@
         </is>
       </c>
       <c r="B104" s="18" t="n">
-        <v>121.5</v>
+        <v>123</v>
       </c>
       <c r="C104" s="19" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="D104" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E104" s="20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F104" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G104" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H104" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I104" s="20" t="n">
         <v>5</v>
@@ -28090,7 +28135,7 @@
         <v>7</v>
       </c>
       <c r="N104" s="20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O104" s="20" t="n">
         <v>6</v>
@@ -28105,16 +28150,16 @@
         <v>5</v>
       </c>
       <c r="S104" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T104" s="20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U104" s="20" t="n">
         <v>6</v>
       </c>
       <c r="V104" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W104" s="20" t="n">
         <v>8</v>
@@ -28127,25 +28172,25 @@
         </is>
       </c>
       <c r="B105" s="18" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C105" s="19" t="n">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="D105" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E105" s="20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F105" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G105" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H105" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I105" s="20" t="n">
         <v>4</v>
@@ -28163,16 +28208,16 @@
         <v>7</v>
       </c>
       <c r="N105" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O105" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P105" s="20" t="n">
         <v>6</v>
       </c>
       <c r="Q105" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R105" s="20" t="n">
         <v>4</v>
@@ -28187,10 +28232,10 @@
         <v>6</v>
       </c>
       <c r="V105" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W105" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -28200,16 +28245,16 @@
         </is>
       </c>
       <c r="B106" s="18" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C106" s="19" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="D106" s="20" t="n">
         <v>5</v>
       </c>
       <c r="E106" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F106" s="20" t="n">
         <v>3</v>
@@ -28218,7 +28263,7 @@
         <v>5</v>
       </c>
       <c r="H106" s="20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I106" s="20" t="n">
         <v>4</v>
@@ -28236,16 +28281,16 @@
         <v>6</v>
       </c>
       <c r="N106" s="20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O106" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P106" s="20" t="n">
         <v>5</v>
       </c>
       <c r="Q106" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R106" s="20" t="n">
         <v>4</v>
@@ -28260,7 +28305,7 @@
         <v>3</v>
       </c>
       <c r="V106" s="20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W106" s="20" t="n">
         <v>3</v>
@@ -28273,10 +28318,10 @@
         </is>
       </c>
       <c r="B107" s="18" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C107" s="19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D107" s="20" t="n">
         <v>3</v>
@@ -28291,7 +28336,7 @@
         <v>3</v>
       </c>
       <c r="H107" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I107" s="20" t="n">
         <v>4</v>
@@ -28309,10 +28354,10 @@
         <v>3</v>
       </c>
       <c r="N107" s="20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O107" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P107" s="20" t="n">
         <v>4</v>
@@ -28333,7 +28378,7 @@
         <v>3</v>
       </c>
       <c r="V107" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W107" s="20" t="n">
         <v>3</v>
@@ -28346,10 +28391,10 @@
         </is>
       </c>
       <c r="B108" s="18" t="n">
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="C108" s="19" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="D108" s="20" t="n">
         <v>2</v>
@@ -28364,7 +28409,7 @@
         <v>2</v>
       </c>
       <c r="H108" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I108" s="20" t="n">
         <v>2</v>
@@ -28382,7 +28427,7 @@
         <v>3</v>
       </c>
       <c r="N108" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O108" s="20" t="n">
         <v>1</v>
@@ -28406,7 +28451,7 @@
         <v>3</v>
       </c>
       <c r="V108" s="20" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W108" s="20" t="n">
         <v>1</v>
@@ -28492,10 +28537,10 @@
         </is>
       </c>
       <c r="B110" s="18" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="C110" s="19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D110" s="20" t="n">
         <v>2</v>
@@ -28546,7 +28591,7 @@
         <v>3</v>
       </c>
       <c r="T110" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U110" s="20" t="n">
         <v>2</v>
@@ -28565,10 +28610,10 @@
         </is>
       </c>
       <c r="B111" s="18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C111" s="19" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D111" s="20" t="n">
         <v>1</v>
@@ -28619,7 +28664,7 @@
         <v>3</v>
       </c>
       <c r="T111" s="20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U111" s="20" t="n">
         <v>1</v>
